--- a/2023/01-目标九宫格/2023_小王同学_目标九宫格.xlsx
+++ b/2023/01-目标九宫格/2023_小王同学_目标九宫格.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\db\daily-interview\2023\01-目标九宫格\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc\weekly\2023\01-目标九宫格\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -225,30 +225,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1. 完成每天黄金三小时睡觉仪式。
-2. 完成每天黄金三小时起床仪式。
-3. 上班加班三步30分钟，周末跑步5公里
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">        不参与
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-早晨15分钟 和睡觉15分钟完成
-1. 学习朗读技巧
-2. 录音 对照镜子说
-3. 请专家点评
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 父母：无法条件支持和赞扬他们一切绝对，不要说 不不不。自己无意识
-2. 儿子：修改作业和阅读习惯
-3. 不在还在面前 看手机，看电脑（回家24小时忙个不停）
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -260,11 +237,6 @@
     <t>1. 我是新手，我要学习ceph mds如何使用和源码
 2. 学会同事沟通：忙碌8小时，从来不说话
 3. 学会领导沟通：我个性这样无法改变，逃避一万次次，什么不说远远躲避</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  如何从新手到大师
-</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -287,11 +259,54 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">如何从新手到大师
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 父母：无法条件支持和赞扬他们一切绝对，不要说 不不不。自己无意识
+【问题：享受父母一切吃穿住行安排，然后否定他们，然后纠正观点不正确让如何，天天不同价值观争吵----唠叨是爱，你赞扬】
+步骤
+1. abc法则 处理情绪，情绪不正确，不说话
+2. 告诉真实意图。【从目的出发，是你没有更好完成 ，起床，沟通，生活，还有教育】
+2. 儿子：修改作业和阅读习惯 
+[问题：等小孩在吃饭前后看手机电视等你告诉不看----激发兴趣，如何做呢？]
+步骤
+1. 别人不感兴趣，你说就是干扰
+3. 不在还在面前 看手机，看电脑（回家24小时忙个不停）
+【问题：自己回家看手机电脑你感觉是学习忙碌，实际上坏榜样，---小孩大人天天可以看，自然看】
+步骤
+1. 下班流程
+2 手机流程
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
-去做就是最大胜利
-1. 调整：距离目标：成为开源数据库贡献者差距十万八千里，是看到听到不会做情况
-2. 每天早晨30分钟，晚上30分钟时间，不要拿着借口，忙碌不会收获，但是看代码会
-3. 一中断就是半年，1年 3年你根本不上，不能中断
+简单事情连续做到三次，价值 百万，不亚于登珠峰，飞太空，睡觉也是赚钱。
+每天因为这些事情做不到，让精力耗尽，生活崩溃，一塌糊涂。
+1. 早晨：6点 默念起床引导词（躺掀传）一遍
+2. 中午吃饭：默念吃饭引导词一遍（电梯，吃饭点，睡觉点）
+3. 下午3点：定时休息一次 10分钟
+4. 5:30下班默念下班流程一次
+5  晚上吃饭：默念吃饭引导词一遍（电梯，吃饭点，睡觉点）
+6. 周五 晚上开始 周六 周天 3天 跑步5公里 不放松 默念手机流程一次（最危险时刻）
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+早晨15分钟 和睡觉15分钟完成
+1. 学习朗读技巧
+2. 录音 对照镜子说
+3. 请专家点评 
+---每天3小时看微信视频，这个改成早5分钟，理论是上可以完成的。
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">目标：成为开源数据库oceanbase,tidb,Tengine贡献者只要其中一个就可以。
+路径：周末时间阅读开源代码，提交bug，增加新特性。有一定难度
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -855,15 +870,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39.25" customWidth="1"/>
-    <col min="2" max="2" width="34.625" customWidth="1"/>
-    <col min="3" max="4" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
@@ -890,33 +906,33 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="27">
+    <row r="5" spans="1:10" ht="63" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="121.5" customHeight="1">
+    <row r="6" spans="1:10" ht="351" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -930,15 +946,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75" customHeight="1">
+    <row r="8" spans="1:10" ht="250.5" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.25">
@@ -977,7 +993,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2023/01-目标九宫格/2023_小王同学_目标九宫格.xlsx
+++ b/2023/01-目标九宫格/2023_小王同学_目标九宫格.xlsx
@@ -12,12 +12,14 @@
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
-    <sheet name="4月" sheetId="5" r:id="rId1"/>
-    <sheet name="九宫格1" sheetId="4" r:id="rId2"/>
+    <sheet name="5月" sheetId="6" r:id="rId1"/>
+    <sheet name="4月" sheetId="5" r:id="rId2"/>
+    <sheet name="九宫格1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4月'!$A$1:$C$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">九宫格1!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'4月'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5月'!$A$1:$C$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">九宫格1!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>目标九宫格</t>
   </si>
@@ -307,6 +309,63 @@
   <si>
     <t xml:space="preserve">目标：成为开源数据库oceanbase,tidb,Tengine贡献者只要其中一个就可以。
 路径：周末时间阅读开源代码，提交bug，增加新特性。有一定难度
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 父母：
+【现状】：反对父母做一切，天天吵架，一个比一个厉害
+【做法】无法条件支持和赞扬他们一切绝对【及时响应】
+ 【行动】abc法则 处理情绪
+1. 早晨时候让父母准备早餐，然后带回公司吃（面对自己起床不想吃，天天他们为难，自己争吵半天为好，为好。你准备好，带走很容易结）
+2.吃饭时候自己快吃完 【晚上回家批评小孩吃饭】
+3. 回家手机放到固定位置，并且锁屏90分钟，不要说天天提醒半夜睡觉【越提醒越是对着干】
+2. 儿子： 
+【现状】：等小孩在吃饭前后看手机电视等你告诉不看----激发兴趣，如何做呢？]
+【做法】 认真不说话
+步骤
+1. 早晨吃饭不提醒
+2. 中午吃饭不提醒
+3，晚上吃饭不提醒
+3. 榜样
+【现状：自己回家看手机电脑你感觉是学习忙碌，实际上坏榜样，---小孩大人天天可以看，自然看】
+【做法】不在还在面前 看手机，看电脑（回家24小时忙个不停）
+步骤
+1. 下班流程：回家手机放在固定位置，不放卧室，不卧室，不餐厅，也不运动地方
+2 手机流程：不学任何东西，看任何东西。
+2 手机流程
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月关键词</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【习惯承诺卡】
+没有改变看手机的渴望
+改变看手机方式，中午 晚上 睡觉 时候  专心吃饭睡觉，运动快走时候 听手机。
+结果：坐着，趴着，躺着 看3小时看手机时间，改为快走 60分钟 听手机。
+【很有价值】
+简单事情连续做到一周，价值 百万，不亚于登珠峰，飞太空
+【预先设置障碍】提示到了，但是自己前方不执行，执行需要消耗力量
+          专心吃饭抵抗美杜莎优化，吃完完毕运动 ，学习快走技巧。
+【承诺事情每天去做】
+1. 中午吃饭流程：空间：（1. 等电梯 2 等餐厅 3. 等  户外），行动 三个步骤（眼睛，手，身体远离手机1米）
+2   晚上吃饭流程：空间：1. 等电梯 2 等餐厅 3. 等  户外），行动 三个步骤（眼睛，手，身体远离手机1米）
+2.  下班流程：空间：（1， 下班路上，2 回家开门 3 睡觉开门），行动  三个步骤眼睛，手，身体远离手机1米）
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">上班那些事
+【自己一个人可以完成】
+1. 上班时间检查番茄时间 工作25分钟，休息5分钟，然后看一下第一个青蛙是否完成
+2. 坐正连续，坐姿正确,弯腰驼背，高低肩，8小时，价值百万事情，让你弯腰不会的
+3. 每天5:00- 5:30固定时间看微信一次。其他时间不看手机和微信
+【沟通需要完成】
+ 1. 积极主动，发现问题，挑战问题。最擅长事情 一次
+当天事情完成，当天汇报。
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -521,6 +580,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="4962525" y="11928475"/>
+          <a:ext cx="484367" cy="490856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2456042</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="Zou_Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="4962525" y="9966325"/>
           <a:ext cx="484367" cy="490856"/>
         </a:xfrm>
@@ -534,7 +642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -901,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="138" customHeight="1">
+    <row r="4" spans="1:10" ht="204" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -918,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -926,13 +1034,13 @@
     </row>
     <row r="6" spans="1:10" ht="351" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="36.75" customHeight="1">
@@ -946,9 +1054,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="250.5" customHeight="1">
+    <row r="8" spans="1:10" ht="273.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>20</v>
@@ -988,6 +1096,127 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="61.375" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33.950000000000003" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" ht="29.1" customHeight="1"/>
+    <row r="3" spans="1:10" ht="27">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="138" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="63" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="351" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="36.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="250.5" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17.25">
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.25">
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="48" spans="7:9" ht="17.25">
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="G48:I48"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75138888888888899" right="0.55416666666666703" top="0.60555555555555596" bottom="0.40902777777777799" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:J48"/>
